--- a/Proyectos/2015/11/P1349 - DA, WinPaq, Rocio Montes_OC/Calidad/No_conformidades.xlsx
+++ b/Proyectos/2015/11/P1349 - DA, WinPaq, Rocio Montes_OC/Calidad/No_conformidades.xlsx
@@ -47,7 +47,7 @@
     <t>Oriana Osiris</t>
   </si>
   <si>
-    <t>En proceso</t>
+    <t>Cerrada</t>
   </si>
   <si>
     <t>Agregar fecha real de cierre en el hito de cierre</t>
@@ -295,7 +295,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -367,7 +367,9 @@
       <c r="D4" s="5" t="n">
         <v>42366</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="n">
+        <v>42360</v>
+      </c>
       <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
